--- a/【NBS】現行NBS抽出データ/10_依頼事項/【NBS】現行NBS抽出データ_CAICAテクノロジーズさんへの依頼事項_20250205.xlsx
+++ b/【NBS】現行NBS抽出データ/10_依頼事項/【NBS】現行NBS抽出データ_CAICAテクノロジーズさんへの依頼事項_20250205.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzusaKoyama（小山梓）\OneDrive - NTTコミュニケーションズ株式会社\SecuredPC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nbs\git_work\NBS\【NBS】現行NBS抽出データ\10_依頼事項\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B1AB99-84AD-4B13-AF82-1409418E1BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="738" activeTab="1" xr2:uid="{BFB8F4AF-5522-4F9E-8862-D5E8B0FC0B6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="738" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="御見積依頼事項" sheetId="15" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="（補足）内容" sheetId="5" r:id="rId9"/>
     <sheet name="Sheet5" sheetId="14" state="hidden" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3474,7 +3473,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3814,8 +3813,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{83CCE3E3-6A88-4920-939A-D96F6F7AEE32}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3850,7 +3849,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4881C6CD-E351-74E7-E5B6-E250941C40CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4881C6CD-E351-74E7-E5B6-E250941C40CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3894,7 +3893,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38910CE0-A1AB-7ACC-DE9A-ED168DAEDDA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38910CE0-A1AB-7ACC-DE9A-ED168DAEDDA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3943,7 +3942,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7D80A1-E8F2-4532-9E2F-A5D592E89C08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF7D80A1-E8F2-4532-9E2F-A5D592E89C08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3987,7 +3986,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B6F9736-583E-69A5-B835-A4FA21424A48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B6F9736-583E-69A5-B835-A4FA21424A48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4048,7 +4047,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2DC6D62-C651-EB23-A262-4528AB614416}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2DC6D62-C651-EB23-A262-4528AB614416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4393,7 +4392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BA6B7E-5E97-4B0C-AC1E-E4785EDC3A11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4406,19 +4405,19 @@
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="6.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>186</v>
       </c>
@@ -4426,42 +4425,42 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>195</v>
       </c>
@@ -4469,52 +4468,52 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>215</v>
       </c>
@@ -4522,37 +4521,37 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>214</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>208</v>
       </c>
@@ -4568,32 +4567,32 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" t="s">
         <v>226</v>
       </c>
@@ -4607,24 +4606,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89474F27-CA1F-4852-A5FE-7DDD0D60A35D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="47.375" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>174</v>
       </c>
@@ -4636,34 +4635,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C82890-DE90-401A-9DBF-32E82A1FCBF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="6" max="6" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="6" max="6" width="22.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.58203125" customWidth="1"/>
     <col min="8" max="8" width="67.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -4739,7 +4738,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -4759,7 +4758,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4811,7 +4810,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4889,7 +4888,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -4909,7 +4908,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -4931,7 +4930,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -4958,29 +4957,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442BDED0-A9DE-46F4-8CA0-9544D534DE4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3.75" style="18" customWidth="1"/>
-    <col min="2" max="2" width="43.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.08203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.25" style="26" customWidth="1"/>
     <col min="4" max="4" width="37.75" style="18" customWidth="1"/>
     <col min="5" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
         <v>249</v>
       </c>
@@ -4994,7 +4993,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19">
         <f t="shared" ref="A3:A16" si="0">ROW()-2</f>
         <v>1</v>
@@ -5007,7 +5006,7 @@
       </c>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5022,7 +5021,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5035,7 +5034,7 @@
       </c>
       <c r="D5" s="21"/>
     </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5048,7 +5047,7 @@
       </c>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5061,7 +5060,7 @@
       </c>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5074,7 +5073,7 @@
       </c>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5087,7 +5086,7 @@
       </c>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5100,7 +5099,7 @@
       </c>
       <c r="D10" s="21"/>
     </row>
-    <row r="11" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5113,7 +5112,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5126,7 +5125,7 @@
       </c>
       <c r="D12" s="21"/>
     </row>
-    <row r="13" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5141,7 +5140,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5156,7 +5155,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5171,7 +5170,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5186,7 +5185,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="18" t="s">
         <v>284</v>
       </c>
@@ -5198,7 +5197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E271EB92-57AC-4C6D-ABDF-1EAC673CDF7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5208,22 +5207,22 @@
       <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="47.75" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
     <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -5262,7 +5261,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A7" si="0">ROW()-2</f>
         <v>2</v>
@@ -5277,7 +5276,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5292,7 +5291,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5307,7 +5306,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5322,7 +5321,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
         <f>ROW()-2</f>
         <v>6</v>
@@ -5341,7 +5340,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
         <f t="shared" ref="A9:A34" si="1">ROW()-2</f>
         <v>7</v>
@@ -5356,7 +5355,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5371,7 +5370,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5386,7 +5385,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -5401,7 +5400,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -5420,7 +5419,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="182.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="180" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -5437,7 +5436,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5456,7 +5455,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -5471,7 +5470,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -5486,7 +5485,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -5501,7 +5500,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -5518,7 +5517,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -5537,7 +5536,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -5552,7 +5551,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5567,7 +5566,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -5582,7 +5581,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -5597,7 +5596,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -5616,7 +5615,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -5631,7 +5630,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -5646,7 +5645,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -5661,7 +5660,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -5676,7 +5675,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -5695,7 +5694,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -5710,7 +5709,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -5725,7 +5724,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -5740,7 +5739,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="36.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -5777,28 +5776,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD002F51-C24C-4B3C-9B68-534C2532CF18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5846,7 +5845,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5870,7 +5869,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5918,7 +5917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5942,7 +5941,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5966,7 +5965,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5990,7 +5989,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6038,7 +6037,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6062,7 +6061,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6086,7 +6085,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6110,7 +6109,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6134,7 +6133,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6234,7 +6233,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6254,7 +6253,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6274,7 +6273,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6301,28 +6300,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44401D9-5191-4224-BFE5-FCFB33BE57A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
     <col min="8" max="8" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6368,7 +6367,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6390,7 +6389,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6412,7 +6411,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6460,7 +6459,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6482,7 +6481,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6500,7 +6499,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6520,7 +6519,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6538,7 +6537,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6558,7 +6557,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6583,7 +6582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB38FFB-CCE1-4FE0-987C-B994A8E82C3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -6593,7 +6592,7 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
@@ -6604,12 +6603,12 @@
     <col min="8" max="8" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -6633,7 +6632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6659,7 +6658,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6711,7 +6710,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6731,7 +6730,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6771,7 +6770,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6791,7 +6790,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6818,17 +6817,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8E5E8B-3A1B-4BAC-B114-2005C0FC6003}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="5" width="21.75" customWidth="1"/>
@@ -6837,12 +6836,12 @@
     <col min="8" max="8" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6890,7 +6889,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6914,7 +6913,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6938,7 +6937,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6962,7 +6961,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6986,7 +6985,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7010,7 +7009,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7034,7 +7033,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7058,7 +7057,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7082,7 +7081,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -7122,7 +7121,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7149,51 +7148,51 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECDA6CF-703C-45D8-803B-0FB03678F446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -7206,21 +7205,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010001D62052EB545349BE38EE7491FBC666" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4f710bcf3d492dd661a82432579debd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77b94a6e-676d-428e-9b64-6f8fc063028c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b00e5eff22a1fe00fd3c24b0130ac7d7" ns2:_="">
     <xsd:import namespace="77b94a6e-676d-428e-9b64-6f8fc063028c"/>
@@ -7364,31 +7348,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8196FE07-ABDC-49BD-AE23-1CEABD8350AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="77b94a6e-676d-428e-9b64-6f8fc063028c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A7D64C-7543-47BE-9ABD-043478A474B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FF446C-0F0D-4FDD-9A6C-2D1AE61A11F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7404,4 +7379,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A7D64C-7543-47BE-9ABD-043478A474B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8196FE07-ABDC-49BD-AE23-1CEABD8350AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="77b94a6e-676d-428e-9b64-6f8fc063028c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>